--- a/Implem.Pleasanter/App_Data/Imports/import_Users.xlsx
+++ b/Implem.Pleasanter/App_Data/Imports/import_Users.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16729"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\CodeDefiner\Implem.CodeDefiner\App_Data\Imports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Pleasanter\Implem.Pleasanter\App_Data\Imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -82,10 +82,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>anonymous</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>UserId</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -102,15 +98,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>system</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>system</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -576,6 +564,16 @@
   <si>
     <t>takahashi-ichiro@example.com</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Administrator</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Anonymouse</t>
+  </si>
+  <si>
+    <t>System Admin</t>
   </si>
 </sst>
 </file>
@@ -1727,6 +1725,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1762,6 +1777,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1971,28 +2003,28 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
@@ -2037,36 +2069,36 @@
         <v>15</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="E2" s="3">
         <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H2" s="2">
         <v>1</v>
@@ -2101,19 +2133,19 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E3" s="3">
         <v>0</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H3" s="2">
         <v>1</v>
@@ -2148,19 +2180,19 @@
         <v>3</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="3">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H4" s="2">
         <v>2</v>
@@ -2199,19 +2231,19 @@
         <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E5" s="3">
         <v>2</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H5" s="2">
         <v>2</v>
@@ -2246,19 +2278,19 @@
         <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E6" s="3">
         <v>2</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H6" s="2">
         <v>2</v>
@@ -2297,19 +2329,19 @@
         <v>6</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E7" s="3">
         <v>2</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="H7" s="2">
         <v>2</v>
@@ -2344,19 +2376,19 @@
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E8" s="3">
         <v>2</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H8" s="2">
         <v>1</v>
@@ -2391,19 +2423,19 @@
         <v>8</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E9" s="3">
         <v>2</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H9" s="2">
         <v>1</v>
@@ -2438,19 +2470,19 @@
         <v>9</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E10" s="3">
         <v>2</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H10" s="2">
         <v>2</v>
@@ -2485,19 +2517,19 @@
         <v>10</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E11" s="3">
         <v>2</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H11" s="2">
         <v>2</v>
@@ -2532,19 +2564,19 @@
         <v>11</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E12" s="3">
         <v>3</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H12" s="2">
         <v>2</v>
@@ -2579,19 +2611,19 @@
         <v>12</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E13" s="3">
         <v>3</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H13" s="2">
         <v>2</v>
@@ -2626,19 +2658,19 @@
         <v>13</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E14" s="3">
         <v>3</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H14" s="2">
         <v>2</v>
@@ -2673,19 +2705,19 @@
         <v>14</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E15" s="3">
         <v>3</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H15" s="2">
         <v>2</v>
@@ -2720,19 +2752,19 @@
         <v>15</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E16" s="3">
         <v>3</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H16" s="2">
         <v>2</v>
@@ -2767,19 +2799,19 @@
         <v>16</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E17" s="3">
         <v>4</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H17" s="2">
         <v>2</v>
@@ -2814,19 +2846,19 @@
         <v>17</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E18" s="3">
         <v>4</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H18" s="2">
         <v>2</v>
@@ -2861,19 +2893,19 @@
         <v>18</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E19" s="3">
         <v>5</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H19" s="2">
         <v>2</v>
@@ -2908,19 +2940,19 @@
         <v>19</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E20" s="3">
         <v>5</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H20" s="2">
         <v>2</v>
@@ -2955,19 +2987,19 @@
         <v>20</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E21" s="3">
         <v>5</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H21" s="2">
         <v>2</v>
@@ -3002,19 +3034,19 @@
         <v>21</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E22" s="3">
         <v>6</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H22" s="2">
         <v>2</v>
@@ -3049,19 +3081,19 @@
         <v>22</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E23" s="3">
         <v>6</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H23" s="2">
         <v>2</v>
@@ -3096,19 +3128,19 @@
         <v>23</v>
       </c>
       <c r="C24" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="E24" s="2">
         <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H24" s="2">
         <v>2</v>
@@ -3145,19 +3177,19 @@
         <v>24</v>
       </c>
       <c r="C25" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="E25" s="2">
         <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H25" s="2">
         <v>2</v>
